--- a/outputs/invoice_大华_Silvassa.xlsx
+++ b/outputs/invoice_大华_Silvassa.xlsx
@@ -50,7 +50,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -64,11 +64,32 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -78,6 +99,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,19 +569,19 @@
       <c r="E2" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="4" t="n">
         <v>10.24</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>F03</t>
         </is>
@@ -583,15 +610,13 @@
       <c r="E3" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="inlineStr"/>
-      <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
       <c r="I3" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="J3" s="3" t="inlineStr"/>
+      <c r="J3" s="5" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
@@ -819,19 +844,19 @@
       <c r="E9" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="4" t="n">
         <v>11.08</v>
       </c>
       <c r="I9" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>F25</t>
         </is>
@@ -859,17 +884,25 @@
       <c r="E10" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="3" t="inlineStr"/>
-      <c r="G10" s="3" t="inlineStr"/>
-      <c r="H10" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+      <c r="H10" s="5" t="n"/>
       <c r="I10" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="3" t="inlineStr"/>
+      <c r="J10" s="5" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/outputs/invoice_大华_Silvassa.xlsx
+++ b/outputs/invoice_大华_Silvassa.xlsx
@@ -993,7 +993,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H10" t="n">
